--- a/Stacks.xlsx
+++ b/Stacks.xlsx
@@ -20,12 +20,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t xml:space="preserve">Nearest Smaller element</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/nearest-smaller-element/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">largest rectangle in histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/largest-rectangle-in-histogram/</t>
   </si>
 </sst>
 </file>
@@ -131,10 +137,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E16" activeCellId="0" sqref="E16"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -152,9 +158,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/nearest-smaller-element/"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/largest-rectangle-in-histogram/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Stacks.xlsx
+++ b/Stacks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">Nearest Smaller element</t>
   </si>
@@ -32,6 +32,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/largest-rectangle-in-histogram/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">first non repeating character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/first-non-repeating-character-in-a-stream-of-characters/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redundant braces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/redundant-braces/</t>
   </si>
 </sst>
 </file>
@@ -46,6 +58,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -67,6 +80,7 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -137,17 +151,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.4489795918367"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="55.4387755102041"/>
-    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.5204081632653"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.1632653061224"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="54.8061224489796"/>
+    <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -166,10 +180,28 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/nearest-smaller-element/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/largest-rectangle-in-histogram/"/>
+    <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/first-non-repeating-character-in-a-stream-of-characters/"/>
+    <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/redundant-braces/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/Stacks.xlsx
+++ b/Stacks.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">Nearest Smaller element</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://www.interviewbit.com/problems/redundant-braces/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluate expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.interviewbit.com/problems/evaluate-expression/</t>
   </si>
 </sst>
 </file>
@@ -151,10 +157,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+      <selection pane="topLeft" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -196,12 +202,21 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.interviewbit.com/problems/nearest-smaller-element/"/>
     <hyperlink ref="B2" r:id="rId2" display="https://www.interviewbit.com/problems/largest-rectangle-in-histogram/"/>
     <hyperlink ref="B3" r:id="rId3" display="https://www.interviewbit.com/problems/first-non-repeating-character-in-a-stream-of-characters/"/>
     <hyperlink ref="B4" r:id="rId4" display="https://www.interviewbit.com/problems/redundant-braces/"/>
+    <hyperlink ref="B5" r:id="rId5" display="https://www.interviewbit.com/problems/evaluate-expression/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
